--- a/SiteLayout.xlsx
+++ b/SiteLayout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6634826-757E-4124-8A08-90372860313F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E4F6E441-0D3E-440C-8A3F-1FBF0FACB98C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>About</t>
   </si>
@@ -135,6 +135,33 @@
   </si>
   <si>
     <t>download GIMP onto her Mac to edit the logo file</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Responsive Image Grid</t>
+  </si>
+  <si>
+    <t>Possibly add image overlay fade to this as well</t>
+  </si>
+  <si>
+    <t>Figure out how to get carousel behind navbar</t>
+  </si>
+  <si>
+    <t>Overall styling</t>
+  </si>
+  <si>
+    <t>Go from 3 to 2 to 1 with Image Overlay Fade</t>
+  </si>
+  <si>
+    <t>Choose fonts, background color, other graphics</t>
+  </si>
+  <si>
+    <t>Design Content Pages</t>
   </si>
 </sst>
 </file>
@@ -176,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,56 +592,165 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -622,6 +759,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -629,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
